--- a/Carg_Rediness/NDNL_/Exception.xlsx
+++ b/Carg_Rediness/NDNL_/Exception.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\Projects\Carg_Rediness\NDNL_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC3D5D1-E738-488F-B631-E1BEE7128F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34026BBA-299C-4505-B8A6-0C2E59DF59AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,27 +36,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Port Name</t>
   </si>
   <si>
-    <t>DUTCH HARBOR, AK</t>
-  </si>
-  <si>
-    <t>HONOLULU, HI</t>
-  </si>
-  <si>
     <t>Service Code</t>
   </si>
   <si>
-    <t>CAGML 3|PORT EVERGLADES</t>
-  </si>
-  <si>
-    <t>CAGML 2|PORT EVERGLADES</t>
-  </si>
-  <si>
-    <t>CAGML|PORT EVERGLADES</t>
+    <t>PORT EVERGLADES</t>
+  </si>
+  <si>
+    <t>DUTCH HARBOR|HONOLULU</t>
+  </si>
+  <si>
+    <t>CAGML 3</t>
+  </si>
+  <si>
+    <t>CAGML 2</t>
+  </si>
+  <si>
+    <t>CAGML</t>
+  </si>
+  <si>
+    <t>PORT EVERGLADES1</t>
+  </si>
+  <si>
+    <t>PORT EVERGLADES2</t>
   </si>
 </sst>
 </file>
@@ -386,43 +392,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
